--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -34,15 +34,6 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>Market Type</t>
-  </si>
-  <si>
-    <t>Close Time</t>
-  </si>
-  <si>
-    <t>Order Expiry Time</t>
-  </si>
-  <si>
     <t>индекса</t>
   </si>
   <si>
@@ -64,10 +55,7 @@
     <t>2851.00</t>
   </si>
   <si>
-    <t xml:space="preserve">15.05.2020 23.00 </t>
-  </si>
-  <si>
-    <t>18.05.2020 19.00</t>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -430,35 +418,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -469,40 +456,28 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
